--- a/models/type3and5and10/Best_ExtremeRandomTrees/ModelMetrics.xlsx
+++ b/models/type3and5and10/Best_ExtremeRandomTrees/ModelMetrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\models\type3and5and10\Best_SGD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\models\type3and5and10\Best_ExtremeRandomTrees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEC5FC4-02A4-43E7-9668-BCA1055BFE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBA4E2B-63F5-4AAA-85D9-22E0A0806BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="5880" windowWidth="14325" windowHeight="8010" xr2:uid="{DA73E4ED-A3F7-A94F-B9FD-B2DD33FE7DD1}"/>
+    <workbookView xWindow="14475" yWindow="3600" windowWidth="14325" windowHeight="8010" xr2:uid="{DA73E4ED-A3F7-A94F-B9FD-B2DD33FE7DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="VotingEnsemble" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>StandardScalerWrapper, ExtremeRandomTrees</t>
   </si>
   <si>
-    <t>dd2967b8-eedd-42ea-bb8c-1643b5697d58_33</t>
+    <t>e91c8e84-e7d7-471d-83bd-f6628178a777_12</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.85714000000000001</v>
+        <v>0.82857000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.82040999999999997</v>
+        <v>0.85714000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.80252999999999997</v>
+        <v>0.83455999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0.72499999999999998</v>
+        <v>0.70833000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.69771000000000005</v>
+        <v>0.68874000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.85714000000000001</v>
+        <v>0.82857000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>0.82838999999999996</v>
+        <v>0.81299999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>0.52002999999999999</v>
+        <v>0.50134000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.45954</v>
+        <v>0.42620999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>0.70643</v>
+        <v>0.70404999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.85714000000000001</v>
+        <v>0.82857000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.83816000000000002</v>
+        <v>0.83408000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>0.72499999999999998</v>
+        <v>0.70833000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>0.85714000000000001</v>
+        <v>0.82857000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>0.85714000000000001</v>
+        <v>0.82857000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>0.89319000000000004</v>
+        <v>0.86075999999999997</v>
       </c>
     </row>
   </sheetData>
